--- a/result/gr50_01_simulated/details.xlsx
+++ b/result/gr50_01_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4335188865661621</v>
+        <v>0.4666194915771484</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>214.1939770570643</v>
+        <v>207.7360586558789</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005826851100033914</v>
+        <v>0.005953584294917272</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005245364366931568</v>
+        <v>0.005368189131073895</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005091309905776823</v>
+        <v>0.005098339670967602</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005008977545304788</v>
+        <v>0.004941235681427699</v>
       </c>
       <c r="J2" t="n">
-        <v>0.004766657091014054</v>
+        <v>0.004867755711073091</v>
       </c>
       <c r="K2" t="n">
-        <v>0.004696162398683197</v>
+        <v>0.004489686657707564</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004521258982434102</v>
+        <v>0.004489686657707564</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004428811493151931</v>
+        <v>0.004402221308805502</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00439510611354143</v>
+        <v>0.004216176235565184</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00439510611354143</v>
+        <v>0.004216176235565184</v>
       </c>
       <c r="P2" t="n">
-        <v>0.004387695136589725</v>
+        <v>0.004202602549725851</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.004324851009904142</v>
+        <v>0.004202602549725851</v>
       </c>
       <c r="R2" t="n">
-        <v>0.004324851009904142</v>
+        <v>0.004202602549725851</v>
       </c>
       <c r="S2" t="n">
-        <v>0.004315443306014381</v>
+        <v>0.004151112666490322</v>
       </c>
       <c r="T2" t="n">
-        <v>0.004261638389551924</v>
+        <v>0.004145101186604272</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004261638389551924</v>
+        <v>0.004137163923682215</v>
       </c>
       <c r="V2" t="n">
-        <v>0.004236025415781826</v>
+        <v>0.004104204417666121</v>
       </c>
       <c r="W2" t="n">
-        <v>0.004198014989796803</v>
+        <v>0.004083757561946301</v>
       </c>
       <c r="X2" t="n">
-        <v>0.004195090123208593</v>
+        <v>0.004080544764813053</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.004175321190196184</v>
+        <v>0.004049435841245201</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4727950096130371</v>
+        <v>0.4045958518981934</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>211.8683638292714</v>
+        <v>215.9554006296148</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006029104217380159</v>
+        <v>0.006012554821459275</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005163783057597687</v>
+        <v>0.005295036367631936</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004990987122462321</v>
+        <v>0.004986953847832086</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004986367585271104</v>
+        <v>0.004895761688391418</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00473138641630426</v>
+        <v>0.004873400258503559</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004695279312242584</v>
+        <v>0.004576401779807722</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004695279312242584</v>
+        <v>0.004576401779807722</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004533772327551601</v>
+        <v>0.004576401779807722</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004533772327551601</v>
+        <v>0.00449700150891417</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004463616673301604</v>
+        <v>0.004388778306368401</v>
       </c>
       <c r="P3" t="n">
-        <v>0.004297463936599152</v>
+        <v>0.004353924678899242</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.004297463936599152</v>
+        <v>0.004353924678899242</v>
       </c>
       <c r="R3" t="n">
-        <v>0.004283774529312243</v>
+        <v>0.004332498008071731</v>
       </c>
       <c r="S3" t="n">
-        <v>0.004260603576685309</v>
+        <v>0.004318603346537006</v>
       </c>
       <c r="T3" t="n">
-        <v>0.004242069991033969</v>
+        <v>0.004260733166965895</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004205046518478627</v>
+        <v>0.004246970450866192</v>
       </c>
       <c r="V3" t="n">
-        <v>0.004162568597708478</v>
+        <v>0.0042404825388545</v>
       </c>
       <c r="W3" t="n">
-        <v>0.004150788805853838</v>
+        <v>0.004227657068647609</v>
       </c>
       <c r="X3" t="n">
-        <v>0.004129987599011137</v>
+        <v>0.004221391626172963</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.004129987599011137</v>
+        <v>0.004209656932351165</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4741196632385254</v>
+        <v>0.4070723056793213</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6077851940936</v>
+        <v>216.3366982265979</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005994135183838352</v>
+        <v>0.006067332779993517</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005227543895462661</v>
+        <v>0.005393267121205752</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004999052316769534</v>
+        <v>0.004943868988933328</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004609452816963758</v>
+        <v>0.004901353057935481</v>
       </c>
       <c r="J4" t="n">
-        <v>0.004609452816963758</v>
+        <v>0.004783275302654206</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004545735904853554</v>
+        <v>0.004725725655377907</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00440601480549224</v>
+        <v>0.004683829221917478</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00440601480549224</v>
+        <v>0.004509412023237326</v>
       </c>
       <c r="N4" t="n">
-        <v>0.00440601480549224</v>
+        <v>0.004509412023237326</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004357986452769624</v>
+        <v>0.00449572647034645</v>
       </c>
       <c r="P4" t="n">
-        <v>0.004311424368671248</v>
+        <v>0.004349988861229302</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.004311424368671248</v>
+        <v>0.004349988861229302</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00430533317580723</v>
+        <v>0.004349988861229302</v>
       </c>
       <c r="S4" t="n">
-        <v>0.004283163350443295</v>
+        <v>0.004318443919448759</v>
       </c>
       <c r="T4" t="n">
-        <v>0.004233870187770655</v>
+        <v>0.004292050975768217</v>
       </c>
       <c r="U4" t="n">
-        <v>0.004201227447243602</v>
+        <v>0.004247510690617281</v>
       </c>
       <c r="V4" t="n">
-        <v>0.004201227447243602</v>
+        <v>0.004247510690617281</v>
       </c>
       <c r="W4" t="n">
-        <v>0.004152479126597952</v>
+        <v>0.004235761174453334</v>
       </c>
       <c r="X4" t="n">
-        <v>0.004147690423834722</v>
+        <v>0.004226935847431586</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.004124908093452116</v>
+        <v>0.004217089634046742</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4099900722503662</v>
+        <v>0.3678033351898193</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>214.6415950257433</v>
+        <v>210.4043682009433</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005957335688019287</v>
+        <v>0.005989927846952334</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005429403909254166</v>
+        <v>0.005359822080949472</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005126253064562524</v>
+        <v>0.004992930339307043</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005039110908003254</v>
+        <v>0.004626250346772948</v>
       </c>
       <c r="J5" t="n">
-        <v>0.004925019881088196</v>
+        <v>0.004626250346772948</v>
       </c>
       <c r="K5" t="n">
-        <v>0.004761990990085422</v>
+        <v>0.004626250346772948</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004648464145668847</v>
+        <v>0.004535987767166975</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004648464145668847</v>
+        <v>0.004472027091651575</v>
       </c>
       <c r="N5" t="n">
-        <v>0.004511054381949606</v>
+        <v>0.00425663050617355</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00450717325261821</v>
+        <v>0.00425663050617355</v>
       </c>
       <c r="P5" t="n">
-        <v>0.004397921028756644</v>
+        <v>0.00425663050617355</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.004397921028756644</v>
+        <v>0.00425663050617355</v>
       </c>
       <c r="R5" t="n">
-        <v>0.004394942798021979</v>
+        <v>0.00425663050617355</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004353554788614598</v>
+        <v>0.004238646207718029</v>
       </c>
       <c r="T5" t="n">
-        <v>0.004325883256349495</v>
+        <v>0.00422082802008896</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004217827207935841</v>
+        <v>0.00422082802008896</v>
       </c>
       <c r="V5" t="n">
-        <v>0.004217827207935841</v>
+        <v>0.004193705817433935</v>
       </c>
       <c r="W5" t="n">
-        <v>0.004204316587493116</v>
+        <v>0.004138815701934746</v>
       </c>
       <c r="X5" t="n">
-        <v>0.004203591259392957</v>
+        <v>0.004101449672533007</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.004184046686661662</v>
+        <v>0.004101449672533007</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4353804588317871</v>
+        <v>0.390594482421875</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>216.7187910562152</v>
+        <v>213.2684369622966</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005857070640762026</v>
+        <v>0.005940771258625728</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005465527292369451</v>
+        <v>0.0051573911929168</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005096248555570911</v>
+        <v>0.004853764315462542</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004977157302581681</v>
+        <v>0.004853764315462542</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004855998842874478</v>
+        <v>0.00460177096071283</v>
       </c>
       <c r="K6" t="n">
-        <v>0.004619647652588537</v>
+        <v>0.00460177096071283</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004577653912902677</v>
+        <v>0.004492357454156328</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004577653912902677</v>
+        <v>0.004386181290035708</v>
       </c>
       <c r="N6" t="n">
-        <v>0.004577653912902677</v>
+        <v>0.004386181290035708</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004556431578610952</v>
+        <v>0.004352352239860082</v>
       </c>
       <c r="P6" t="n">
-        <v>0.004520465654472944</v>
+        <v>0.00432182339647724</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.004503011106246286</v>
+        <v>0.00432182339647724</v>
       </c>
       <c r="R6" t="n">
-        <v>0.004463056727169907</v>
+        <v>0.004284707444585754</v>
       </c>
       <c r="S6" t="n">
-        <v>0.004435840475772764</v>
+        <v>0.004278750701051873</v>
       </c>
       <c r="T6" t="n">
-        <v>0.004362474772086477</v>
+        <v>0.00421469357416699</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004276124257278345</v>
+        <v>0.004198743302276746</v>
       </c>
       <c r="V6" t="n">
-        <v>0.004276124257278345</v>
+        <v>0.004187467340536996</v>
       </c>
       <c r="W6" t="n">
-        <v>0.004274458732214266</v>
+        <v>0.004180964714938121</v>
       </c>
       <c r="X6" t="n">
-        <v>0.004238172876955066</v>
+        <v>0.004177106434668267</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.004224537837353121</v>
+        <v>0.004157279472949251</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4016392230987549</v>
+        <v>0.4305441379547119</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>211.8988923775632</v>
+        <v>212.4196194185279</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006067332779993517</v>
+        <v>0.005961684840401669</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005450838544156386</v>
+        <v>0.005240373657493</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00501074894192085</v>
+        <v>0.004968727956311801</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004940338789141743</v>
+        <v>0.004915811333706543</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004620760739249519</v>
+        <v>0.004915811333706543</v>
       </c>
       <c r="K7" t="n">
-        <v>0.004620760739249519</v>
+        <v>0.004852708101142919</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004620760739249519</v>
+        <v>0.004687305311851096</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004620760739249519</v>
+        <v>0.004687305311851096</v>
       </c>
       <c r="N7" t="n">
-        <v>0.004446121158055328</v>
+        <v>0.004609103805919198</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004410342847788615</v>
+        <v>0.004417282740778778</v>
       </c>
       <c r="P7" t="n">
-        <v>0.004359687462436031</v>
+        <v>0.004417282740778778</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.004282999483674709</v>
+        <v>0.004379634664962038</v>
       </c>
       <c r="R7" t="n">
-        <v>0.004212927567908349</v>
+        <v>0.004363428300196522</v>
       </c>
       <c r="S7" t="n">
-        <v>0.004212927567908349</v>
+        <v>0.004343192812140476</v>
       </c>
       <c r="T7" t="n">
-        <v>0.004212927567908349</v>
+        <v>0.004296120684679014</v>
       </c>
       <c r="U7" t="n">
-        <v>0.004198919309005926</v>
+        <v>0.004222417431783735</v>
       </c>
       <c r="V7" t="n">
-        <v>0.004169842610489508</v>
+        <v>0.00420004693556851</v>
       </c>
       <c r="W7" t="n">
-        <v>0.004164853424346915</v>
+        <v>0.004169458281882333</v>
       </c>
       <c r="X7" t="n">
-        <v>0.004142207082141682</v>
+        <v>0.004155395403456503</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.004130582697418386</v>
+        <v>0.004140733321998593</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4024434089660645</v>
+        <v>0.4419827461242676</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>211.8611641020398</v>
+        <v>208.8545051639248</v>
       </c>
       <c r="F8" t="n">
-        <v>0.005915210863100195</v>
+        <v>0.005879060393559895</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005236187678647732</v>
+        <v>0.005123601416366049</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005112211946377772</v>
+        <v>0.005085588020634996</v>
       </c>
       <c r="I8" t="n">
-        <v>0.004967416758705761</v>
+        <v>0.004824729987737871</v>
       </c>
       <c r="J8" t="n">
-        <v>0.004696061364453912</v>
+        <v>0.004765616560080213</v>
       </c>
       <c r="K8" t="n">
-        <v>0.004696061364453912</v>
+        <v>0.004624287067181035</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004633498604502941</v>
+        <v>0.004527822059131601</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004468990301722891</v>
+        <v>0.004484219655513898</v>
       </c>
       <c r="N8" t="n">
-        <v>0.004468990301722891</v>
+        <v>0.004465508577135618</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004468990301722891</v>
+        <v>0.004333292069539055</v>
       </c>
       <c r="P8" t="n">
-        <v>0.004430748396482289</v>
+        <v>0.00429474258212233</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.004430748396482289</v>
+        <v>0.004190986837743765</v>
       </c>
       <c r="R8" t="n">
-        <v>0.004376002655211649</v>
+        <v>0.004190986837743765</v>
       </c>
       <c r="S8" t="n">
-        <v>0.004335757064098812</v>
+        <v>0.004190986837743765</v>
       </c>
       <c r="T8" t="n">
-        <v>0.004274351169388876</v>
+        <v>0.004177371684374527</v>
       </c>
       <c r="U8" t="n">
-        <v>0.004255593262501863</v>
+        <v>0.004136219046032285</v>
       </c>
       <c r="V8" t="n">
-        <v>0.004209959025732647</v>
+        <v>0.004131651043263351</v>
       </c>
       <c r="W8" t="n">
-        <v>0.004182033642211098</v>
+        <v>0.004106699945534191</v>
       </c>
       <c r="X8" t="n">
-        <v>0.004150463732526262</v>
+        <v>0.004106699945534191</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.004129847253451066</v>
+        <v>0.004071237917425434</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4286959171295166</v>
+        <v>0.3808796405792236</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>213.7465821558562</v>
+        <v>212.2347159621313</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00602766737159269</v>
+        <v>0.005912705158227065</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00533174044745791</v>
+        <v>0.005022365187489082</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005204952666211533</v>
+        <v>0.004968408541628756</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004996694327100517</v>
+        <v>0.004968408541628756</v>
       </c>
       <c r="J9" t="n">
-        <v>0.004738000091468078</v>
+        <v>0.004508968004553897</v>
       </c>
       <c r="K9" t="n">
-        <v>0.004738000091468078</v>
+        <v>0.004508968004553897</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004623450710190752</v>
+        <v>0.004478828371294852</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004481848350700119</v>
+        <v>0.004449892808438464</v>
       </c>
       <c r="N9" t="n">
-        <v>0.004481848350700119</v>
+        <v>0.004449892808438464</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004338717491466215</v>
+        <v>0.00433980375303997</v>
       </c>
       <c r="P9" t="n">
-        <v>0.004338717491466215</v>
+        <v>0.00433980375303997</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.004317414929278598</v>
+        <v>0.004308410226834323</v>
       </c>
       <c r="R9" t="n">
-        <v>0.004309680493027266</v>
+        <v>0.004280522964004082</v>
       </c>
       <c r="S9" t="n">
-        <v>0.004258921163879905</v>
+        <v>0.004280522964004082</v>
       </c>
       <c r="T9" t="n">
-        <v>0.004258921163879905</v>
+        <v>0.004277811651051402</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004234606452839648</v>
+        <v>0.004219692011902863</v>
       </c>
       <c r="V9" t="n">
-        <v>0.004187649149056627</v>
+        <v>0.004193212839220055</v>
       </c>
       <c r="W9" t="n">
-        <v>0.004187649149056627</v>
+        <v>0.004190584126509884</v>
       </c>
       <c r="X9" t="n">
-        <v>0.004181670179223182</v>
+        <v>0.004149368291141372</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.004166600042024488</v>
+        <v>0.004137128966123417</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4041147232055664</v>
+        <v>0.3906245231628418</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>216.0840996315965</v>
+        <v>220.5958513863643</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006066183068417984</v>
+        <v>0.006030707666437985</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005261990388773613</v>
+        <v>0.005399849135774593</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004952803698818323</v>
+        <v>0.004974936891654297</v>
       </c>
       <c r="I10" t="n">
-        <v>0.004756941282225719</v>
+        <v>0.004834682809387745</v>
       </c>
       <c r="J10" t="n">
-        <v>0.004603354525675172</v>
+        <v>0.004776794918418114</v>
       </c>
       <c r="K10" t="n">
-        <v>0.004603354525675172</v>
+        <v>0.004752282765899688</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004560790921177063</v>
+        <v>0.004752282765899688</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00438428552028536</v>
+        <v>0.004700939901956223</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00438428552028536</v>
+        <v>0.004700939901956223</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00438428552028536</v>
+        <v>0.004636767666316623</v>
       </c>
       <c r="P10" t="n">
-        <v>0.00438428552028536</v>
+        <v>0.004616372323600397</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.004353060230798829</v>
+        <v>0.004604363258842521</v>
       </c>
       <c r="R10" t="n">
-        <v>0.004323128113039848</v>
+        <v>0.004525373939545422</v>
       </c>
       <c r="S10" t="n">
-        <v>0.004323128113039848</v>
+        <v>0.004466050548733186</v>
       </c>
       <c r="T10" t="n">
-        <v>0.004308228226230295</v>
+        <v>0.004438455446793917</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004299836284623564</v>
+        <v>0.00435752736712277</v>
       </c>
       <c r="V10" t="n">
-        <v>0.004262195183649393</v>
+        <v>0.004324757431058366</v>
       </c>
       <c r="W10" t="n">
-        <v>0.004237912030925388</v>
+        <v>0.004320299179355705</v>
       </c>
       <c r="X10" t="n">
-        <v>0.004220509933418522</v>
+        <v>0.004300114062112364</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.004212165684826441</v>
+        <v>0.004300114062112364</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4170656204223633</v>
+        <v>0.3906254768371582</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>212.0833180892023</v>
+        <v>213.1421084955982</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006067332779993517</v>
+        <v>0.006051709744267044</v>
       </c>
       <c r="G11" t="n">
-        <v>0.005374336854043437</v>
+        <v>0.005371799740082598</v>
       </c>
       <c r="H11" t="n">
-        <v>0.004969258155992451</v>
+        <v>0.005077553426418004</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004790199452556201</v>
+        <v>0.004946435328762857</v>
       </c>
       <c r="J11" t="n">
-        <v>0.004790199452556201</v>
+        <v>0.004773064965607439</v>
       </c>
       <c r="K11" t="n">
-        <v>0.004753700253398857</v>
+        <v>0.004773064965607439</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004568579226757599</v>
+        <v>0.004579564551253032</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004464925557327113</v>
+        <v>0.00452281300209219</v>
       </c>
       <c r="N11" t="n">
-        <v>0.004432052367054189</v>
+        <v>0.00452281300209219</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004351510590676781</v>
+        <v>0.004269404317556658</v>
       </c>
       <c r="P11" t="n">
-        <v>0.004351510590676781</v>
+        <v>0.004269404317556658</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.004276373873483668</v>
+        <v>0.004269404317556658</v>
       </c>
       <c r="R11" t="n">
-        <v>0.004276373873483668</v>
+        <v>0.004269404317556658</v>
       </c>
       <c r="S11" t="n">
-        <v>0.004207230058915551</v>
+        <v>0.004212804742222211</v>
       </c>
       <c r="T11" t="n">
-        <v>0.004205414466841031</v>
+        <v>0.004212804742222211</v>
       </c>
       <c r="U11" t="n">
-        <v>0.004177620783306316</v>
+        <v>0.004212804742222211</v>
       </c>
       <c r="V11" t="n">
-        <v>0.004177620783306316</v>
+        <v>0.004212359845887103</v>
       </c>
       <c r="W11" t="n">
-        <v>0.004163482265326043</v>
+        <v>0.004170835118506107</v>
       </c>
       <c r="X11" t="n">
-        <v>0.004149515557555237</v>
+        <v>0.004170835118506107</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.004134177740530258</v>
+        <v>0.004154816929738756</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr50_01_simulated/details.xlsx
+++ b/result/gr50_01_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4666194915771484</v>
+        <v>0.8000006675720215</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>207.7360586558789</v>
+        <v>214.7213788980116</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005953584294917272</v>
+        <v>0.005346381028066423</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005368189131073895</v>
+        <v>0.00492640138066684</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005098339670967602</v>
+        <v>0.00492640138066684</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004941235681427699</v>
+        <v>0.004602094923975882</v>
       </c>
       <c r="J2" t="n">
-        <v>0.004867755711073091</v>
+        <v>0.004602094923975882</v>
       </c>
       <c r="K2" t="n">
-        <v>0.004489686657707564</v>
+        <v>0.004602094923975882</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004489686657707564</v>
+        <v>0.004576315054447534</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004402221308805502</v>
+        <v>0.004575112486114983</v>
       </c>
       <c r="N2" t="n">
-        <v>0.004216176235565184</v>
+        <v>0.004525511900407371</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004216176235565184</v>
+        <v>0.00440430735705288</v>
       </c>
       <c r="P2" t="n">
-        <v>0.004202602549725851</v>
+        <v>0.00440430735705288</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.004202602549725851</v>
+        <v>0.00440430735705288</v>
       </c>
       <c r="R2" t="n">
-        <v>0.004202602549725851</v>
+        <v>0.00432890496548281</v>
       </c>
       <c r="S2" t="n">
-        <v>0.004151112666490322</v>
+        <v>0.004311766279417149</v>
       </c>
       <c r="T2" t="n">
-        <v>0.004145101186604272</v>
+        <v>0.004295986399468312</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004137163923682215</v>
+        <v>0.004217292550986181</v>
       </c>
       <c r="V2" t="n">
-        <v>0.004104204417666121</v>
+        <v>0.004217292550986181</v>
       </c>
       <c r="W2" t="n">
-        <v>0.004083757561946301</v>
+        <v>0.00420888711460172</v>
       </c>
       <c r="X2" t="n">
-        <v>0.004080544764813053</v>
+        <v>0.00420888711460172</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.004049435841245201</v>
+        <v>0.004185601927836483</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4045958518981934</v>
+        <v>0.8019962310791016</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.9554006296148</v>
+        <v>214.9350200352128</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006012554821459275</v>
+        <v>0.005406260595095675</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005295036367631936</v>
+        <v>0.004723112793375686</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004986953847832086</v>
+        <v>0.004723112793375686</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004895761688391418</v>
+        <v>0.004537026943229857</v>
       </c>
       <c r="J3" t="n">
-        <v>0.004873400258503559</v>
+        <v>0.004537026943229857</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004576401779807722</v>
+        <v>0.004537026943229857</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004576401779807722</v>
+        <v>0.004537026943229857</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004576401779807722</v>
+        <v>0.004534997683126152</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00449700150891417</v>
+        <v>0.004503787047543423</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004388778306368401</v>
+        <v>0.004456764632231795</v>
       </c>
       <c r="P3" t="n">
-        <v>0.004353924678899242</v>
+        <v>0.004438596941224078</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.004353924678899242</v>
+        <v>0.00440456944059498</v>
       </c>
       <c r="R3" t="n">
-        <v>0.004332498008071731</v>
+        <v>0.004390166852866876</v>
       </c>
       <c r="S3" t="n">
-        <v>0.004318603346537006</v>
+        <v>0.004309459224301395</v>
       </c>
       <c r="T3" t="n">
-        <v>0.004260733166965895</v>
+        <v>0.004305706287762442</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004246970450866192</v>
+        <v>0.004286081872980953</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0042404825388545</v>
+        <v>0.004286081872980953</v>
       </c>
       <c r="W3" t="n">
-        <v>0.004227657068647609</v>
+        <v>0.004241507753862991</v>
       </c>
       <c r="X3" t="n">
-        <v>0.004221391626172963</v>
+        <v>0.004222944759700292</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.004209656932351165</v>
+        <v>0.004189766472421301</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4070723056793213</v>
+        <v>0.9010047912597656</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>216.3366982265979</v>
+        <v>214.5405462753642</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006067332779993517</v>
+        <v>0.005406260595095675</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005393267121205752</v>
+        <v>0.004934106956476759</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004943868988933328</v>
+        <v>0.004760832846073597</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004901353057935481</v>
+        <v>0.004667912507990768</v>
       </c>
       <c r="J4" t="n">
-        <v>0.004783275302654206</v>
+        <v>0.004533212240490882</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004725725655377907</v>
+        <v>0.004455080191979171</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004683829221917478</v>
+        <v>0.004401794125058489</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004509412023237326</v>
+        <v>0.004380668526284448</v>
       </c>
       <c r="N4" t="n">
-        <v>0.004509412023237326</v>
+        <v>0.004380668526284448</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00449572647034645</v>
+        <v>0.004380668526284448</v>
       </c>
       <c r="P4" t="n">
-        <v>0.004349988861229302</v>
+        <v>0.004380668526284448</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.004349988861229302</v>
+        <v>0.004380668526284448</v>
       </c>
       <c r="R4" t="n">
-        <v>0.004349988861229302</v>
+        <v>0.004290161955327986</v>
       </c>
       <c r="S4" t="n">
-        <v>0.004318443919448759</v>
+        <v>0.00428819424405716</v>
       </c>
       <c r="T4" t="n">
-        <v>0.004292050975768217</v>
+        <v>0.00428819424405716</v>
       </c>
       <c r="U4" t="n">
-        <v>0.004247510690617281</v>
+        <v>0.004265671670227018</v>
       </c>
       <c r="V4" t="n">
-        <v>0.004247510690617281</v>
+        <v>0.004214118961672974</v>
       </c>
       <c r="W4" t="n">
-        <v>0.004235761174453334</v>
+        <v>0.004206368644095846</v>
       </c>
       <c r="X4" t="n">
-        <v>0.004226935847431586</v>
+        <v>0.004185103729166167</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.004217089634046742</v>
+        <v>0.004182076925445696</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3678033351898193</v>
+        <v>0.7700023651123047</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>210.4043682009433</v>
+        <v>208.742485547662</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005989927846952334</v>
+        <v>0.005406260595095675</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005359822080949472</v>
+        <v>0.004952794870520366</v>
       </c>
       <c r="H5" t="n">
-        <v>0.004992930339307043</v>
+        <v>0.004737167976803455</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004626250346772948</v>
+        <v>0.004650015505544784</v>
       </c>
       <c r="J5" t="n">
-        <v>0.004626250346772948</v>
+        <v>0.004465853983348251</v>
       </c>
       <c r="K5" t="n">
-        <v>0.004626250346772948</v>
+        <v>0.004463074221171216</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004535987767166975</v>
+        <v>0.004463074221171216</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004472027091651575</v>
+        <v>0.004277794001772648</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00425663050617355</v>
+        <v>0.004277794001772648</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00425663050617355</v>
+        <v>0.004277794001772648</v>
       </c>
       <c r="P5" t="n">
-        <v>0.00425663050617355</v>
+        <v>0.004264414629703989</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.00425663050617355</v>
+        <v>0.004216604915438427</v>
       </c>
       <c r="R5" t="n">
-        <v>0.00425663050617355</v>
+        <v>0.004216604915438427</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004238646207718029</v>
+        <v>0.004193022067826964</v>
       </c>
       <c r="T5" t="n">
-        <v>0.00422082802008896</v>
+        <v>0.004163245994325718</v>
       </c>
       <c r="U5" t="n">
-        <v>0.00422082802008896</v>
+        <v>0.00414873103165923</v>
       </c>
       <c r="V5" t="n">
-        <v>0.004193705817433935</v>
+        <v>0.004119497605891216</v>
       </c>
       <c r="W5" t="n">
-        <v>0.004138815701934746</v>
+        <v>0.004107912204862087</v>
       </c>
       <c r="X5" t="n">
-        <v>0.004101449672533007</v>
+        <v>0.004101156945179413</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.004101449672533007</v>
+        <v>0.004069054299174696</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.390594482421875</v>
+        <v>0.8170065879821777</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>213.2684369622966</v>
+        <v>208.9947254736744</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005940771258625728</v>
+        <v>0.00532778429072544</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0051573911929168</v>
+        <v>0.004964024018688902</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004853764315462542</v>
+        <v>0.004704487760723903</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004853764315462542</v>
+        <v>0.004704487760723903</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00460177096071283</v>
+        <v>0.004659651212391287</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00460177096071283</v>
+        <v>0.004532514880877527</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004492357454156328</v>
+        <v>0.004466151366116666</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004386181290035708</v>
+        <v>0.004416028305618454</v>
       </c>
       <c r="N6" t="n">
-        <v>0.004386181290035708</v>
+        <v>0.004315255861456995</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004352352239860082</v>
+        <v>0.00430188793347865</v>
       </c>
       <c r="P6" t="n">
-        <v>0.00432182339647724</v>
+        <v>0.004206338340073381</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.00432182339647724</v>
+        <v>0.004206338340073381</v>
       </c>
       <c r="R6" t="n">
-        <v>0.004284707444585754</v>
+        <v>0.004206338340073381</v>
       </c>
       <c r="S6" t="n">
-        <v>0.004278750701051873</v>
+        <v>0.004161320120916609</v>
       </c>
       <c r="T6" t="n">
-        <v>0.00421469357416699</v>
+        <v>0.004149372463692089</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004198743302276746</v>
+        <v>0.004136789144080959</v>
       </c>
       <c r="V6" t="n">
-        <v>0.004187467340536996</v>
+        <v>0.004130591296758622</v>
       </c>
       <c r="W6" t="n">
-        <v>0.004180964714938121</v>
+        <v>0.004118753219521267</v>
       </c>
       <c r="X6" t="n">
-        <v>0.004177106434668267</v>
+        <v>0.004080085205518378</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.004157279472949251</v>
+        <v>0.00407397125679677</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4305441379547119</v>
+        <v>0.8060007095336914</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>212.4196194185279</v>
+        <v>206.7685864213654</v>
       </c>
       <c r="F7" t="n">
-        <v>0.005961684840401669</v>
+        <v>0.005351429160723002</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005240373657493</v>
+        <v>0.004897368424727533</v>
       </c>
       <c r="H7" t="n">
-        <v>0.004968727956311801</v>
+        <v>0.004786342656350622</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004915811333706543</v>
+        <v>0.004644281545994164</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004915811333706543</v>
+        <v>0.004457881305069886</v>
       </c>
       <c r="K7" t="n">
-        <v>0.004852708101142919</v>
+        <v>0.004457881305069886</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004687305311851096</v>
+        <v>0.004417133827596505</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004687305311851096</v>
+        <v>0.00430536331250398</v>
       </c>
       <c r="N7" t="n">
-        <v>0.004609103805919198</v>
+        <v>0.00430536331250398</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004417282740778778</v>
+        <v>0.00430536331250398</v>
       </c>
       <c r="P7" t="n">
-        <v>0.004417282740778778</v>
+        <v>0.004302434824660886</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.004379634664962038</v>
+        <v>0.004242886553701251</v>
       </c>
       <c r="R7" t="n">
-        <v>0.004363428300196522</v>
+        <v>0.004145423972174123</v>
       </c>
       <c r="S7" t="n">
-        <v>0.004343192812140476</v>
+        <v>0.004145423972174123</v>
       </c>
       <c r="T7" t="n">
-        <v>0.004296120684679014</v>
+        <v>0.004137054187417091</v>
       </c>
       <c r="U7" t="n">
-        <v>0.004222417431783735</v>
+        <v>0.004122899593527235</v>
       </c>
       <c r="V7" t="n">
-        <v>0.00420004693556851</v>
+        <v>0.004102884122555275</v>
       </c>
       <c r="W7" t="n">
-        <v>0.004169458281882333</v>
+        <v>0.004075172449718533</v>
       </c>
       <c r="X7" t="n">
-        <v>0.004155395403456503</v>
+        <v>0.004043355312240814</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.004140733321998593</v>
+        <v>0.004030576733359948</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4419827461242676</v>
+        <v>0.826998233795166</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>208.8545051639248</v>
+        <v>209.8327443252747</v>
       </c>
       <c r="F8" t="n">
-        <v>0.005879060393559895</v>
+        <v>0.005375769854281581</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005123601416366049</v>
+        <v>0.005039727683530361</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005085588020634996</v>
+        <v>0.004762905667361456</v>
       </c>
       <c r="I8" t="n">
-        <v>0.004824729987737871</v>
+        <v>0.004635015773427452</v>
       </c>
       <c r="J8" t="n">
-        <v>0.004765616560080213</v>
+        <v>0.004586353351731633</v>
       </c>
       <c r="K8" t="n">
-        <v>0.004624287067181035</v>
+        <v>0.004586353351731633</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004527822059131601</v>
+        <v>0.004423979765568672</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004484219655513898</v>
+        <v>0.004297330577873542</v>
       </c>
       <c r="N8" t="n">
-        <v>0.004465508577135618</v>
+        <v>0.004297330577873542</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004333292069539055</v>
+        <v>0.004297330577873542</v>
       </c>
       <c r="P8" t="n">
-        <v>0.00429474258212233</v>
+        <v>0.004297330577873542</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.004190986837743765</v>
+        <v>0.004192647190263873</v>
       </c>
       <c r="R8" t="n">
-        <v>0.004190986837743765</v>
+        <v>0.004192647190263873</v>
       </c>
       <c r="S8" t="n">
-        <v>0.004190986837743765</v>
+        <v>0.004192647190263873</v>
       </c>
       <c r="T8" t="n">
-        <v>0.004177371684374527</v>
+        <v>0.004192647190263873</v>
       </c>
       <c r="U8" t="n">
-        <v>0.004136219046032285</v>
+        <v>0.004192647190263873</v>
       </c>
       <c r="V8" t="n">
-        <v>0.004131651043263351</v>
+        <v>0.004129434550926653</v>
       </c>
       <c r="W8" t="n">
-        <v>0.004106699945534191</v>
+        <v>0.004129434550926653</v>
       </c>
       <c r="X8" t="n">
-        <v>0.004106699945534191</v>
+        <v>0.004108471072994321</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.004071237917425434</v>
+        <v>0.004090306906925432</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3808796405792236</v>
+        <v>0.7749979496002197</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>212.2347159621313</v>
+        <v>207.5377270594709</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005912705158227065</v>
+        <v>0.005232389430979058</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005022365187489082</v>
+        <v>0.004898309901870878</v>
       </c>
       <c r="H9" t="n">
-        <v>0.004968408541628756</v>
+        <v>0.004854656145856027</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004968408541628756</v>
+        <v>0.00477115642799745</v>
       </c>
       <c r="J9" t="n">
-        <v>0.004508968004553897</v>
+        <v>0.004511315616534178</v>
       </c>
       <c r="K9" t="n">
-        <v>0.004508968004553897</v>
+        <v>0.004511315616534178</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004478828371294852</v>
+        <v>0.004511315616534178</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004449892808438464</v>
+        <v>0.004400354870813493</v>
       </c>
       <c r="N9" t="n">
-        <v>0.004449892808438464</v>
+        <v>0.004357595374129738</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00433980375303997</v>
+        <v>0.004357595374129738</v>
       </c>
       <c r="P9" t="n">
-        <v>0.00433980375303997</v>
+        <v>0.004341852558388379</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.004308410226834323</v>
+        <v>0.004217561468763999</v>
       </c>
       <c r="R9" t="n">
-        <v>0.004280522964004082</v>
+        <v>0.004217561468763999</v>
       </c>
       <c r="S9" t="n">
-        <v>0.004280522964004082</v>
+        <v>0.004162682399043533</v>
       </c>
       <c r="T9" t="n">
-        <v>0.004277811651051402</v>
+        <v>0.004102329629303529</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004219692011902863</v>
+        <v>0.00408203763875929</v>
       </c>
       <c r="V9" t="n">
-        <v>0.004193212839220055</v>
+        <v>0.004078823614020622</v>
       </c>
       <c r="W9" t="n">
-        <v>0.004190584126509884</v>
+        <v>0.00406267642217193</v>
       </c>
       <c r="X9" t="n">
-        <v>0.004149368291141372</v>
+        <v>0.004053013571449988</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.004137128966123417</v>
+        <v>0.004045569728254792</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3906245231628418</v>
+        <v>0.7310268878936768</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>220.5958513863643</v>
+        <v>214.7453286753334</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006030707666437985</v>
+        <v>0.005242365997607147</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005399849135774593</v>
+        <v>0.004917740760704342</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004974936891654297</v>
+        <v>0.004797743374100581</v>
       </c>
       <c r="I10" t="n">
-        <v>0.004834682809387745</v>
+        <v>0.00464129355178569</v>
       </c>
       <c r="J10" t="n">
-        <v>0.004776794918418114</v>
+        <v>0.00464129355178569</v>
       </c>
       <c r="K10" t="n">
-        <v>0.004752282765899688</v>
+        <v>0.004536494475175598</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004752282765899688</v>
+        <v>0.004536494475175598</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004700939901956223</v>
+        <v>0.004485678602205299</v>
       </c>
       <c r="N10" t="n">
-        <v>0.004700939901956223</v>
+        <v>0.004485678602205299</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004636767666316623</v>
+        <v>0.004395483629402811</v>
       </c>
       <c r="P10" t="n">
-        <v>0.004616372323600397</v>
+        <v>0.004395483629402811</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.004604363258842521</v>
+        <v>0.004350592257498015</v>
       </c>
       <c r="R10" t="n">
-        <v>0.004525373939545422</v>
+        <v>0.004321492851981777</v>
       </c>
       <c r="S10" t="n">
-        <v>0.004466050548733186</v>
+        <v>0.004251742144040701</v>
       </c>
       <c r="T10" t="n">
-        <v>0.004438455446793917</v>
+        <v>0.004251742144040701</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00435752736712277</v>
+        <v>0.004251742144040701</v>
       </c>
       <c r="V10" t="n">
-        <v>0.004324757431058366</v>
+        <v>0.004242247807156977</v>
       </c>
       <c r="W10" t="n">
-        <v>0.004320299179355705</v>
+        <v>0.004241557047214308</v>
       </c>
       <c r="X10" t="n">
-        <v>0.004300114062112364</v>
+        <v>0.004224976585716723</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.004300114062112364</v>
+        <v>0.004186068785094218</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3906254768371582</v>
+        <v>0.7109959125518799</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>213.1421084955982</v>
+        <v>211.147855791025</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006051709744267044</v>
+        <v>0.005381263431984753</v>
       </c>
       <c r="G11" t="n">
-        <v>0.005371799740082598</v>
+        <v>0.004922725300291017</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005077553426418004</v>
+        <v>0.004666652334736427</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004946435328762857</v>
+        <v>0.004666652334736427</v>
       </c>
       <c r="J11" t="n">
-        <v>0.004773064965607439</v>
+        <v>0.004631370198230247</v>
       </c>
       <c r="K11" t="n">
-        <v>0.004773064965607439</v>
+        <v>0.004610700792548699</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004579564551253032</v>
+        <v>0.004563682663676948</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00452281300209219</v>
+        <v>0.004563682663676948</v>
       </c>
       <c r="N11" t="n">
-        <v>0.00452281300209219</v>
+        <v>0.004340619437376556</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004269404317556658</v>
+        <v>0.004340619437376556</v>
       </c>
       <c r="P11" t="n">
-        <v>0.004269404317556658</v>
+        <v>0.004340619437376556</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.004269404317556658</v>
+        <v>0.0042020077078082</v>
       </c>
       <c r="R11" t="n">
-        <v>0.004269404317556658</v>
+        <v>0.0042020077078082</v>
       </c>
       <c r="S11" t="n">
-        <v>0.004212804742222211</v>
+        <v>0.0042020077078082</v>
       </c>
       <c r="T11" t="n">
-        <v>0.004212804742222211</v>
+        <v>0.004198102479953639</v>
       </c>
       <c r="U11" t="n">
-        <v>0.004212804742222211</v>
+        <v>0.004141757046547237</v>
       </c>
       <c r="V11" t="n">
-        <v>0.004212359845887103</v>
+        <v>0.004141533744451154</v>
       </c>
       <c r="W11" t="n">
-        <v>0.004170835118506107</v>
+        <v>0.004118884226401016</v>
       </c>
       <c r="X11" t="n">
-        <v>0.004170835118506107</v>
+        <v>0.004118884226401016</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.004154816929738756</v>
+        <v>0.004115942608012182</v>
       </c>
     </row>
   </sheetData>
